--- a/275-recherche-union-filter/ig/StructureDefinition-ror-organization.xlsx
+++ b/275-recherche-union-filter/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:35:44+00:00</t>
+    <t>2024-02-26T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1770,9 +1770,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>raisonSociale (EJ) : Raison sociale complète de l'entité juridique
-ou nom de l'EG :  Nom sous lequel l'entité géographique exerce son activité
-ou nom de l'OI : Nom de l'organisation interne</t>
+    <t>raisonSociale (EJ) ou denominationEG (EG) ou nomOI (OI) - Remarque : Décalage provisoire de la cardinalité par rapport au modèle d'exposition (1..1)</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -1800,7 +1798,7 @@
 </t>
   </si>
   <si>
-    <t>complementRaisonSociale (EJ) : Suite de la raison sociale, si elle existe</t>
+    <t>complementRaisonSociale (EJ) ou complementDenominationEG (EG)</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR pour nom complémentaire de l'EJ (complementRaisonSociale)  ou nom complémentaire de l'EG (DenominationEG)</t>
@@ -1821,7 +1819,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>nom opérationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
+    <t>nomOperationnel (EG) : l’appellation communément utilisée par les acteurs de santé pour désigner l'entité géographique</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
@@ -19313,7 +19311,7 @@
         <v>80</v>
       </c>
       <c r="H157" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I157" t="s" s="2">
         <v>72</v>
@@ -19510,7 +19508,7 @@
         <v>73</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>81</v>
